--- a/ResultadoEleicoesDistritos/VILA REAL_MESÃO FRIO.xlsx
+++ b/ResultadoEleicoesDistritos/VILA REAL_MESÃO FRIO.xlsx
@@ -597,28 +597,28 @@
         <v>1027</v>
       </c>
       <c r="H2" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I2" t="n">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="J2" t="n">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L2" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N2" t="n">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
@@ -627,34 +627,34 @@
         <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S2" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="T2" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="U2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="V2" t="n">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>660</v>
+        <v>690</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z2" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="AA2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
